--- a/Sesmic Isolation Data 1.xlsx
+++ b/Sesmic Isolation Data 1.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>Frequency (Hz)</t>
   </si>
@@ -30,12 +31,18 @@
   <si>
     <t>Ratio of oscillating mirror to driven mirror</t>
   </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Filtered</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -50,6 +57,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,29 +120,46 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -155,6 +183,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -363,24 +395,24 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0.25</v>
       </c>
       <c r="B2" s="6">
@@ -399,7 +431,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0.5</v>
       </c>
       <c r="B3" s="6">
@@ -418,7 +450,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.75</v>
       </c>
       <c r="B4" s="6">
@@ -437,7 +469,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1.0</v>
       </c>
       <c r="B5" s="6">
@@ -456,7 +488,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1.25</v>
       </c>
       <c r="B6" s="6">
@@ -475,7 +507,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1.5</v>
       </c>
       <c r="B7" s="6">
@@ -494,7 +526,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>1.75</v>
       </c>
       <c r="B8" s="6">
@@ -513,7 +545,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2.0</v>
       </c>
       <c r="B9" s="6">
@@ -532,7 +564,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>2.25</v>
       </c>
       <c r="B10" s="6">
@@ -551,7 +583,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>2.5</v>
       </c>
       <c r="B11" s="6">
@@ -570,7 +602,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>2.75</v>
       </c>
       <c r="B12" s="6">
@@ -589,7 +621,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>3.0</v>
       </c>
       <c r="B13" s="6">
@@ -608,7 +640,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>3.25</v>
       </c>
       <c r="B14" s="6">
@@ -627,7 +659,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>3.5</v>
       </c>
       <c r="B15" s="6">
@@ -646,7 +678,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>3.75</v>
       </c>
       <c r="B16" s="6">
@@ -665,7 +697,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>4.0</v>
       </c>
       <c r="B17" s="6">
@@ -684,7 +716,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>4.25</v>
       </c>
       <c r="B18" s="6">
@@ -703,7 +735,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>4.5</v>
       </c>
       <c r="B19" s="6">
@@ -722,7 +754,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>4.75</v>
       </c>
       <c r="B20" s="6">
@@ -741,7 +773,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>5.0</v>
       </c>
       <c r="B21" s="6">
@@ -760,7 +792,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>5.25</v>
       </c>
       <c r="B22" s="6">
@@ -779,7 +811,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>5.5</v>
       </c>
       <c r="B23" s="6">
@@ -798,7 +830,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>5.75</v>
       </c>
       <c r="B24" s="6">
@@ -817,7 +849,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>6.0</v>
       </c>
       <c r="B25" s="6">
@@ -836,7 +868,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <f t="shared" ref="A26:A41" si="3">A25+0.25</f>
         <v>6.25</v>
       </c>
@@ -856,7 +888,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
@@ -876,7 +908,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
@@ -896,7 +928,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -916,7 +948,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
@@ -936,7 +968,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
@@ -956,7 +988,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
@@ -976,7 +1008,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -996,7 +1028,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
@@ -1016,7 +1048,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
@@ -1036,7 +1068,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
@@ -1056,7 +1088,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -1076,7 +1108,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
@@ -1096,7 +1128,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
@@ -1116,7 +1148,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <f t="shared" si="3"/>
         <v>9.75</v>
       </c>
@@ -1136,7 +1168,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -1785,21 +1817,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0.25</v>
       </c>
       <c r="B2" s="6">
@@ -1818,7 +1850,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0.5</v>
       </c>
       <c r="B3" s="6">
@@ -1837,7 +1869,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.75</v>
       </c>
       <c r="B4" s="6">
@@ -1856,7 +1888,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1.0</v>
       </c>
       <c r="B5" s="6">
@@ -1875,7 +1907,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1.25</v>
       </c>
       <c r="B6" s="6">
@@ -1894,7 +1926,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1.5</v>
       </c>
       <c r="B7" s="6">
@@ -1913,7 +1945,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>2.5</v>
       </c>
       <c r="B8" s="6">
@@ -1932,7 +1964,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2.75</v>
       </c>
       <c r="B9" s="6">
@@ -1951,7 +1983,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>3.0</v>
       </c>
       <c r="B10" s="6">
@@ -1970,7 +2002,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>3.25</v>
       </c>
       <c r="B11" s="6">
@@ -1989,7 +2021,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>3.5</v>
       </c>
       <c r="B12" s="6">
@@ -2008,7 +2040,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>3.75</v>
       </c>
       <c r="B13" s="6">
@@ -2027,7 +2059,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>4.25</v>
       </c>
       <c r="B14" s="6">
@@ -2046,7 +2078,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>4.5</v>
       </c>
       <c r="B15" s="6">
@@ -2065,7 +2097,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>4.75</v>
       </c>
       <c r="B16" s="6">
@@ -2084,7 +2116,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>5.0</v>
       </c>
       <c r="B17" s="6">
@@ -2103,7 +2135,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>5.25</v>
       </c>
       <c r="B18" s="6">
@@ -2122,7 +2154,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>5.5</v>
       </c>
       <c r="B19" s="6">
@@ -2141,7 +2173,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>5.75</v>
       </c>
       <c r="B20" s="6">
@@ -2160,7 +2192,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>6.0</v>
       </c>
       <c r="B21" s="6">
@@ -2179,7 +2211,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <f t="shared" ref="A22:A37" si="3">A21+0.25</f>
         <v>6.25</v>
       </c>
@@ -2199,7 +2231,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
@@ -2219,7 +2251,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
@@ -2239,7 +2271,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -2259,7 +2291,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
@@ -2279,7 +2311,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
@@ -2299,7 +2331,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
@@ -2319,7 +2351,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -2339,7 +2371,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
@@ -2359,7 +2391,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
@@ -2379,7 +2411,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
@@ -2399,7 +2431,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -2419,7 +2451,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
@@ -2439,7 +2471,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
@@ -2459,7 +2491,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <f t="shared" si="3"/>
         <v>9.75</v>
       </c>
@@ -2479,7 +2511,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -2499,7 +2531,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>10.5</v>
       </c>
       <c r="B38" s="6">
@@ -2518,7 +2550,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>11.0</v>
       </c>
       <c r="B39" s="6">
@@ -2537,7 +2569,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>12.0</v>
       </c>
       <c r="B40" s="6">
@@ -2556,7 +2588,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>12.5</v>
       </c>
       <c r="B41" s="6">
@@ -2575,7 +2607,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <f t="shared" ref="A42:A58" si="4">A41+0.5</f>
         <v>13</v>
       </c>
@@ -2595,7 +2627,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
@@ -2615,7 +2647,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -2635,7 +2667,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
@@ -2655,7 +2687,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -2675,7 +2707,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
@@ -2695,7 +2727,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -2715,7 +2747,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
@@ -2735,7 +2767,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -2755,7 +2787,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
@@ -2775,7 +2807,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -2795,7 +2827,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <f t="shared" si="4"/>
         <v>18.5</v>
       </c>
@@ -2815,7 +2847,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -2835,7 +2867,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
@@ -2855,7 +2887,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -2875,7 +2907,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
@@ -2895,7 +2927,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -2915,7 +2947,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>22.0</v>
       </c>
       <c r="B59" s="6">
@@ -2934,7 +2966,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>23.0</v>
       </c>
       <c r="B60" s="6">
@@ -2953,7 +2985,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>25.0</v>
       </c>
       <c r="B61" s="6">
@@ -2972,7 +3004,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <f t="shared" ref="A62:A66" si="5">A61+1</f>
         <v>26</v>
       </c>
@@ -2992,7 +3024,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -3012,7 +3044,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -3032,7 +3064,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -3052,7 +3084,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -3090,21 +3122,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0.25</v>
       </c>
       <c r="B2" s="6">
@@ -3123,7 +3155,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0.5</v>
       </c>
       <c r="B3" s="6">
@@ -3142,7 +3174,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.75</v>
       </c>
       <c r="B4" s="6">
@@ -3161,7 +3193,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1.0</v>
       </c>
       <c r="B5" s="6">
@@ -3180,7 +3212,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1.5</v>
       </c>
       <c r="B6" s="6">
@@ -3199,7 +3231,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1.75</v>
       </c>
       <c r="B7" s="6">
@@ -3218,7 +3250,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>2.0</v>
       </c>
       <c r="B8" s="6">
@@ -3237,7 +3269,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2.25</v>
       </c>
       <c r="B9" s="6">
@@ -3256,7 +3288,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>2.75</v>
       </c>
       <c r="B10" s="6">
@@ -3275,7 +3307,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>3.0</v>
       </c>
       <c r="B11" s="6">
@@ -3294,7 +3326,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>3.25</v>
       </c>
       <c r="B12" s="6">
@@ -3313,7 +3345,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>3.5</v>
       </c>
       <c r="B13" s="6">
@@ -3332,7 +3364,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>3.75</v>
       </c>
       <c r="B14" s="6">
@@ -3351,7 +3383,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>4.0</v>
       </c>
       <c r="B15" s="6">
@@ -3370,7 +3402,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>4.5</v>
       </c>
       <c r="B16" s="6">
@@ -3389,7 +3421,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>4.75</v>
       </c>
       <c r="B17" s="6">
@@ -3408,7 +3440,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>5.0</v>
       </c>
       <c r="B18" s="6">
@@ -3427,7 +3459,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>5.25</v>
       </c>
       <c r="B19" s="6">
@@ -3446,7 +3478,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>5.5</v>
       </c>
       <c r="B20" s="6">
@@ -3465,7 +3497,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>5.75</v>
       </c>
       <c r="B21" s="6">
@@ -3484,7 +3516,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>6.0</v>
       </c>
       <c r="B22" s="6">
@@ -3503,7 +3535,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <f t="shared" ref="A23:A38" si="3">A22+0.25</f>
         <v>6.25</v>
       </c>
@@ -3523,7 +3555,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
@@ -3543,7 +3575,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
@@ -3563,7 +3595,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -3583,7 +3615,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
@@ -3603,7 +3635,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
@@ -3623,7 +3655,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
@@ -3643,7 +3675,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -3663,7 +3695,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
@@ -3683,7 +3715,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
@@ -3703,7 +3735,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
@@ -3723,7 +3755,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -3743,7 +3775,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
@@ -3763,7 +3795,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
@@ -3783,7 +3815,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <f t="shared" si="3"/>
         <v>9.75</v>
       </c>
@@ -3803,7 +3835,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
@@ -3823,7 +3855,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>11.0</v>
       </c>
       <c r="B39" s="6">
@@ -3842,7 +3874,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>11.5</v>
       </c>
       <c r="B40" s="6">
@@ -3861,7 +3893,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>12.5</v>
       </c>
       <c r="B41" s="6">
@@ -3880,7 +3912,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <f t="shared" ref="A42:A58" si="4">A41+0.5</f>
         <v>13</v>
       </c>
@@ -3900,7 +3932,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
@@ -3920,7 +3952,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -3940,7 +3972,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
@@ -3960,7 +3992,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -3980,7 +4012,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
@@ -4000,7 +4032,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -4020,7 +4052,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
@@ -4040,7 +4072,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -4060,7 +4092,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
@@ -4080,7 +4112,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -4100,7 +4132,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <f t="shared" si="4"/>
         <v>18.5</v>
       </c>
@@ -4120,7 +4152,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -4140,7 +4172,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
@@ -4160,7 +4192,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -4180,7 +4212,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
@@ -4200,7 +4232,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -4220,7 +4252,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>22.0</v>
       </c>
       <c r="B59" s="6">
@@ -4239,7 +4271,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>23.0</v>
       </c>
       <c r="B60" s="6">
@@ -4258,7 +4290,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>24.0</v>
       </c>
       <c r="B61" s="6">
@@ -4277,7 +4309,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>25.0</v>
       </c>
       <c r="B62" s="6">
@@ -4296,7 +4328,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <f t="shared" ref="A63:A67" si="5">A62+1</f>
         <v>26</v>
       </c>
@@ -4316,7 +4348,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -4336,7 +4368,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -4356,7 +4388,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -4376,7 +4408,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -4414,21 +4446,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>0.25</v>
       </c>
       <c r="B2" s="6">
@@ -4447,7 +4479,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>0.5</v>
       </c>
       <c r="B3" s="6">
@@ -4466,7 +4498,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>0.75</v>
       </c>
       <c r="B4" s="6">
@@ -4485,7 +4517,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1.0</v>
       </c>
       <c r="B5" s="6">
@@ -4504,7 +4536,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1.25</v>
       </c>
       <c r="B6" s="6">
@@ -4523,7 +4555,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>1.5</v>
       </c>
       <c r="B7" s="6">
@@ -4542,7 +4574,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>2.25</v>
       </c>
       <c r="B8" s="6">
@@ -4561,7 +4593,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>2.5</v>
       </c>
       <c r="B9" s="6">
@@ -4580,7 +4612,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>2.75</v>
       </c>
       <c r="B10" s="6">
@@ -4599,7 +4631,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>3.0</v>
       </c>
       <c r="B11" s="6">
@@ -4618,7 +4650,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>3.5</v>
       </c>
       <c r="B12" s="6">
@@ -4637,7 +4669,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>3.75</v>
       </c>
       <c r="B13" s="6">
@@ -4656,7 +4688,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>4.25</v>
       </c>
       <c r="B14" s="6">
@@ -4675,7 +4707,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>4.5</v>
       </c>
       <c r="B15" s="6">
@@ -4694,7 +4726,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>5.0</v>
       </c>
       <c r="B16" s="6">
@@ -4713,7 +4745,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>5.25</v>
       </c>
       <c r="B17" s="6">
@@ -4732,7 +4764,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>5.75</v>
       </c>
       <c r="B18" s="6">
@@ -4751,7 +4783,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>6.0</v>
       </c>
       <c r="B19" s="6">
@@ -4770,7 +4802,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <f t="shared" ref="A20:A33" si="3">A19+0.25</f>
         <v>6.25</v>
       </c>
@@ -4790,7 +4822,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
@@ -4810,7 +4842,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
@@ -4830,7 +4862,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -4850,7 +4882,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
@@ -4870,7 +4902,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
@@ -4890,7 +4922,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
@@ -4910,7 +4942,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -4930,7 +4962,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
@@ -4950,7 +4982,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
@@ -4970,7 +5002,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
@@ -4990,7 +5022,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -5010,7 +5042,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
@@ -5030,7 +5062,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
@@ -5050,7 +5082,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>10.5</v>
       </c>
       <c r="B34" s="6">
@@ -5069,7 +5101,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>11.0</v>
       </c>
       <c r="B35" s="6">
@@ -5088,7 +5120,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>11.5</v>
       </c>
       <c r="B36" s="6">
@@ -5107,7 +5139,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>12.0</v>
       </c>
       <c r="B37" s="6">
@@ -5126,7 +5158,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>12.5</v>
       </c>
       <c r="B38" s="6">
@@ -5145,7 +5177,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <f t="shared" ref="A39:A55" si="4">A38+0.5</f>
         <v>13</v>
       </c>
@@ -5165,7 +5197,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
@@ -5185,7 +5217,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -5205,7 +5237,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
@@ -5225,7 +5257,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -5245,7 +5277,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
@@ -5265,7 +5297,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -5285,7 +5317,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
@@ -5305,7 +5337,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -5325,7 +5357,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
@@ -5345,7 +5377,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -5365,7 +5397,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <f t="shared" si="4"/>
         <v>18.5</v>
       </c>
@@ -5385,7 +5417,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -5405,7 +5437,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
@@ -5425,7 +5457,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -5445,7 +5477,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
@@ -5465,7 +5497,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -5485,7 +5517,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>22.0</v>
       </c>
       <c r="B56" s="6">
@@ -5504,7 +5536,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>23.0</v>
       </c>
       <c r="B57" s="6">
@@ -5523,7 +5555,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>25.0</v>
       </c>
       <c r="B58" s="6">
@@ -5542,7 +5574,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <f t="shared" ref="A59:A63" si="5">A58+1</f>
         <v>26</v>
       </c>
@@ -5562,7 +5594,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -5582,7 +5614,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -5602,7 +5634,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -5622,7 +5654,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -5640,6 +5672,840 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.4999999999999998</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.7499999999999998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="B8" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10">
+        <v>3.25</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.999999999999999</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1.3333333333333335</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <v>4.25</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10">
+        <v>4.75</v>
+      </c>
+      <c r="B20" s="10">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10">
+        <v>5.25</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13">
+        <f t="shared" ref="A26:A41" si="1">A25+0.25</f>
+        <v>6.25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="13">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13">
+        <f t="shared" si="1"/>
+        <v>6.75</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="13">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="B30" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="13">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
+      <c r="B34" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="13">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="13">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="B36" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1.7499999999999998</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B37" s="10">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="13">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1.7499999999999998</v>
+      </c>
+      <c r="C38" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="13">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="C42" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="C43" s="12">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="B44" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="C44" s="12">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="C45" s="12">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="B46" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="13">
+        <f t="shared" ref="A47:A63" si="2">A46+0.5</f>
+        <v>13</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C47" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="13">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="B48" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="13">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="13">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="B50" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="13">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C51" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="13">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="B52" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="13">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C53" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="13">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C54" s="12">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="13">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C55" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="13">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="B56" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C56" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="13">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C57" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="13">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="B58" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C58" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="13">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B59" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="13">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="B60" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="13">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="B62" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C62" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="13">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C63" s="12">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="12">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="B65" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="C65" s="12">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>24.0</v>
+      </c>
+      <c r="B66" s="10">
+        <v>35.0</v>
+      </c>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C67" s="9">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="13">
+        <f t="shared" ref="A68:A72" si="3">A67+1</f>
+        <v>26</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="C68" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="13">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="13">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="B70" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="13">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B71" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B72" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
